--- a/Schemota/lect12_konec.xlsx
+++ b/Schemota/lect12_konec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LECTURES\Schemota\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egr\Documents\LECTURES\Schemota\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +86,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,10 +120,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,26 +417,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H12"/>
+  <dimension ref="D3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
@@ -419,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -436,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>2</v>
@@ -451,8 +482,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -468,7 +499,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,8 +514,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -499,7 +531,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
@@ -513,8 +546,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -530,7 +563,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
